--- a/3/5/Tasa de interés interbancaria 1996 a 2021 - Mensual.xlsx
+++ b/3/5/Tasa de interés interbancaria 1996 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t>Serie</t>
   </si>
@@ -941,6 +941,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3765,7 +3768,15 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>0.4</v>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/Tasa de interés interbancaria 1996 a 2021 - Mensual.xlsx
+++ b/3/5/Tasa de interés interbancaria 1996 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>Serie</t>
   </si>
@@ -944,6 +944,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3779,6 +3782,14 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/Tasa de interés interbancaria 1996 a 2021 - Mensual.xlsx
+++ b/3/5/Tasa de interés interbancaria 1996 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>Serie</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3790,6 +3793,14 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>1.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
